--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Finalisation de la planification initiale</t>
   </si>
   <si>
-    <t>Début de l'analyse</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -93,6 +90,18 @@
   </si>
   <si>
     <t>Lecture du cahier des charges. Changements apliqués au git.</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Début de la création du rapport de travail</t>
+  </si>
+  <si>
+    <t>Mise à jour de la planification en prenant en compte le cahier des charges</t>
+  </si>
+  <si>
+    <t>//</t>
   </si>
 </sst>
 </file>
@@ -153,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -188,6 +197,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,24 +603,50 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43510</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="autoNoTable"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -92,16 +92,25 @@
     <t>Lecture du cahier des charges. Changements apliqués au git.</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>Début de la création du rapport de travail</t>
-  </si>
-  <si>
-    <t>Mise à jour de la planification en prenant en compte le cahier des charges</t>
-  </si>
-  <si>
-    <t>//</t>
+    <t>Replanification en prenant en compte le le nouveau cahier des charges</t>
+  </si>
+  <si>
+    <t>Portage de la planification vers un document Microsoft Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
+  </si>
+  <si>
+    <t>Début de la création du rapport de travail: Introduction</t>
+  </si>
+  <si>
+    <t>Nicolas Maitre</t>
+  </si>
+  <si>
+    <t>Rapport de travail: Objectifs + Planification initiale</t>
+  </si>
+  <si>
+    <t>Rapport de travail: Concept</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -158,11 +167,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -182,34 +299,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,153 +644,490 @@
     <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="15">
         <v>43502</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="15">
         <v>43503</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="15">
         <v>43504</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>43510</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>43511</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>43510</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="D14" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Rapport de travail: Concept</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Installation de</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -275,11 +281,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -352,6 +426,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +734,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,16 +860,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="25">
         <v>43510</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -814,26 +912,38 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="30">
+        <v>43517</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="15">
+        <v>43529</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -116,7 +116,37 @@
     <t>1h</t>
   </si>
   <si>
-    <t>Installation de</t>
+    <t>Installation de NodeJS et du NodePacketManager(npm)</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Mise en place du authentification par clé privée sur le serveur</t>
+  </si>
+  <si>
+    <t>Développement</t>
+  </si>
+  <si>
+    <t>Création de l'arborescence du projet / fichiers principaux</t>
+  </si>
+  <si>
+    <t>Début de la création du serveur http pour permettre d'afficher une page html.</t>
+  </si>
+  <si>
+    <t>Configuration du package "forever" pour redémarrer le serveur à la modification du fichier.</t>
+  </si>
+  <si>
+    <t>Création des maquettes de la web app. (login, signup, web app, etc)</t>
+  </si>
+  <si>
+    <t>2h30m</t>
+  </si>
+  <si>
+    <t>Conception</t>
+  </si>
+  <si>
+    <t>Création du MCD et du MLD de la base de données.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -312,58 +342,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -374,15 +358,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,58 +373,70 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,125 +721,126 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="24"/>
+    <col min="3" max="3" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="9">
         <v>43502</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="9">
         <v>43503</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="9">
         <v>43504</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -860,384 +848,426 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="11">
         <v>43510</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>43511</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="11">
         <v>43517</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="10">
+        <v>43517</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>43529</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
+      <c r="B17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43531</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="12">
+        <v>43532</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Création du MCD et du MLD de la base de données.</t>
+  </si>
+  <si>
+    <t>Début de la création du README</t>
+  </si>
+  <si>
+    <t>Réalisation / finition du serveur de distribution de fichiers</t>
+  </si>
+  <si>
+    <t>Analyse et conception du serveur de distribution de fichiers (et un peu du serveur http)</t>
   </si>
 </sst>
 </file>
@@ -720,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,16 +949,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <v>43529</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -983,7 +992,7 @@
       <c r="A20" s="12">
         <v>43532</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -994,37 +1003,53 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>43538</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9">
+        <v>43539</v>
+      </c>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Analyse et conception du serveur de distribution de fichiers (et un peu du serveur http)</t>
+  </si>
+  <si>
+    <t>Création du framwork de construction de la page en Javascript (gestionnaire de pages)</t>
+  </si>
+  <si>
+    <t>Création du topMenu de la page MWA</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,19 +1052,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43539</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Création du topMenu de la page MWA</t>
+  </si>
+  <si>
+    <t>Début de la mise en place sur serveur websocket</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1085,9 @@
       <c r="A27" s="9"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>Début de la mise en place sur serveur websocket</t>
+  </si>
+  <si>
+    <t>CSS et Construction de la page MWA</t>
+  </si>
+  <si>
+    <t>Méthodes d'accès à la base mariadb</t>
+  </si>
+  <si>
+    <t>Insertion de messages dans la base de données.</t>
   </si>
 </sst>
 </file>
@@ -739,7 +748,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,18 +1091,26 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="9">
+        <v>43543</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1105,13 +1122,23 @@
       <c r="A30" s="9"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="9">
+        <v>43553</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>

--- a/documentation/MAITRE_JournalDeBord.xlsx
+++ b/documentation/MAITRE_JournalDeBord.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ trucs\git\messaging_web_app\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\git\PRETPI_MAITRE\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D52844-3EB8-4E44-8409-163380A6F09E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -205,11 +211,23 @@
   <si>
     <t>Finition de l'ajout de commentaires dans le code</t>
   </si>
+  <si>
+    <t>Ajout de légendes/explications aux wireframes</t>
+  </si>
+  <si>
+    <t>Mise au propre et test du script sql de création de base</t>
+  </si>
+  <si>
+    <t>Remplissage des points importants restants de la documentation.</t>
+  </si>
+  <si>
+    <t>Temps total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -271,50 +289,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -336,17 +313,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -373,41 +339,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -431,16 +362,295 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -449,48 +659,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -499,11 +674,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -525,86 +697,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -619,11 +776,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,671 +1118,705 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AMK67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="28"/>
-    <col min="3" max="3" width="15.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" style="20" customWidth="1"/>
-    <col min="5" max="1025" width="11.42578125" style="10"/>
-    <col min="1026" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" style="11" customWidth="1"/>
+    <col min="5" max="1025" width="11.42578125" style="8"/>
+    <col min="1026" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
         <v>43502</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>43503</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="27">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>43504</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="32">
         <v>0.5</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="27">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32">
         <v>0.5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48">
         <v>1.5</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
         <v>43510</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="44">
         <v>2</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>43511</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="32">
         <v>1.5</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="27">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32">
         <v>1.5</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="27">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48">
         <v>1</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
         <v>43517</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="52">
         <v>1.5</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48">
         <v>1.5</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="50" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="E16" s="55"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
         <v>43529</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="44">
         <v>1.5</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>43531</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="32">
         <v>1.5</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="27">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32">
         <v>0.5</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>43532</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="32">
         <v>2.5</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48">
         <v>1</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
         <v>43538</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="44">
         <v>0.25</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="27">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32">
         <v>1.5</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="27">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32">
         <v>2.5</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>43539</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="32">
         <v>2.5</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="27">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32">
         <v>0.75</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="E27" s="55"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
         <v>43543</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="44">
         <v>1.5</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48">
         <v>2</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="50" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>43553</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="15">
         <v>2</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
         <v>43556</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="44">
         <v>1</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="27">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32">
         <v>2</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="27">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32">
         <v>1</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="31">
         <v>43557</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="32">
         <v>2</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="27">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32">
         <v>1.5</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="27">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32">
         <v>1</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="27">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32">
         <v>0.75</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="31">
         <v>43558</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="35">
         <v>1</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="31">
         <v>43559</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="35">
         <v>1</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="27">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32">
         <v>2</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C41" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D41" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="D41" s="19"/>
-    </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="18"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="38">
+        <v>1</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40">
+        <v>4</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="21" t="str">
+        <f>_xlfn.CONCAT(SUM(B3:B43), " heures")</f>
+        <v>53.75 heures</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="18"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="18"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="18"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="18"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>